--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajame\OneDrive\Documents\UiPath\REF_Assignment3_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FB944-31AD-44A3-BBCD-A686266C2497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06EFB66-B3ED-4024-9233-DFBD40D49B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="1140" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -177,7 +177,7 @@
     <t>https://www.guidgenerator.com/online-guid-generator.aspx</t>
   </si>
   <si>
-    <t>IN_GUID_URL</t>
+    <t>in_CounOfColumnl</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,6 +247,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,7 +568,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -662,18 +665,20 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1663,10 +1668,9 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{10B1F227-3CE6-4910-AEF1-15D696BD3B45}"/>
     <hyperlink ref="B8" r:id="rId2" xr:uid="{4847D812-051E-466A-8441-8C2A26A15BC2}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{94D50A75-6C37-4DEF-AE06-4E2C0D4F4C1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
